--- a/data/excel/ContentManagement_AirlineAutoTicket.xlsx
+++ b/data/excel/ContentManagement_AirlineAutoTicket.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar.gaurav\git\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7B1223-A967-461E-BC08-2944E833B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109E75F3-9028-4565-855E-4470ABB842A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="25410" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="64">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -106,9 +107,6 @@
     <t>Piyush_ql</t>
   </si>
   <si>
-    <t>Password@@12</t>
-  </si>
-  <si>
     <t>Delhi travels,laxmi travel,MSR Travels,QA Branch,QLABS Agency,Quadlabs Gurugram,test branch</t>
   </si>
   <si>
@@ -212,6 +210,15 @@
   </si>
   <si>
     <t>1S-Sabre 5WTF</t>
+  </si>
+  <si>
+    <t>9@6C6535C</t>
+  </si>
+  <si>
+    <t>Ankur@123456</t>
+  </si>
+  <si>
+    <t>ankur_ql</t>
   </si>
 </sst>
 </file>
@@ -364,14 +371,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -656,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -748,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>
@@ -760,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="11">
         <v>1</v>
@@ -772,13 +779,13 @@
         <v>21</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="11">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>20</v>
@@ -786,10 +793,10 @@
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -804,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H3" s="6">
         <v>2</v>
@@ -816,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="11">
         <v>1</v>
@@ -828,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P3" s="11">
         <v>2</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>20</v>
@@ -842,10 +849,10 @@
     </row>
     <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -860,7 +867,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H4" s="6">
         <v>2</v>
@@ -872,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="11">
         <v>2</v>
@@ -884,13 +891,13 @@
         <v>21</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="11">
         <v>1</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>20</v>
@@ -898,10 +905,10 @@
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -916,7 +923,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H5" s="6">
         <v>2</v>
@@ -928,10 +935,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="11">
         <v>1</v>
@@ -940,13 +947,13 @@
         <v>21</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P5" s="11">
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>20</v>
@@ -954,10 +961,10 @@
     </row>
     <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -972,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H6" s="6">
         <v>3</v>
@@ -984,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="11">
         <v>3</v>
@@ -996,13 +1003,13 @@
         <v>21</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="11">
         <v>2</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>20</v>
@@ -1010,10 +1017,10 @@
     </row>
     <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -1028,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H7" s="6">
         <v>2</v>
@@ -1040,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="11">
         <v>1</v>
@@ -1052,13 +1059,13 @@
         <v>21</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" s="11">
         <v>1</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>20</v>
@@ -1066,10 +1073,10 @@
     </row>
     <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
@@ -1084,7 +1091,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H8" s="6">
         <v>2</v>
@@ -1096,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="11">
         <v>2</v>
@@ -1108,13 +1115,13 @@
         <v>21</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P8" s="11">
         <v>1</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>20</v>
@@ -1122,10 +1129,10 @@
     </row>
     <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -1140,7 +1147,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H9" s="6">
         <v>2</v>
@@ -1152,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="11">
         <v>1</v>
@@ -1164,13 +1171,13 @@
         <v>21</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="11">
         <v>1</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>20</v>
@@ -1178,10 +1185,10 @@
     </row>
     <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
@@ -1196,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H10" s="6">
         <v>2</v>
@@ -1208,10 +1215,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" s="11">
         <v>1</v>
@@ -1220,13 +1227,13 @@
         <v>21</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="11">
         <v>1</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>20</v>
@@ -1234,10 +1241,10 @@
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -1252,7 +1259,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H11" s="6">
         <v>2</v>
@@ -1264,10 +1271,10 @@
         <v>2</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="11">
         <v>1</v>
@@ -1276,13 +1283,13 @@
         <v>21</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P11" s="11">
         <v>1</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>20</v>
@@ -1290,10 +1297,10 @@
     </row>
     <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
@@ -1308,7 +1315,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H12" s="6">
         <v>2</v>
@@ -1320,10 +1327,10 @@
         <v>2</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="11">
         <v>1</v>
@@ -1332,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P12" s="11">
         <v>2</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>20</v>
@@ -1346,10 +1353,10 @@
     </row>
     <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -1364,7 +1371,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H13" s="6">
         <v>2</v>
@@ -1376,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13" s="11">
         <v>1</v>
@@ -1388,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="11">
         <v>1</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>20</v>
@@ -1402,10 +1409,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
@@ -1420,7 +1427,7 @@
         <v>25</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H14" s="6">
         <v>2</v>
@@ -1433,7 +1440,7 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="11">
         <v>1</v>
@@ -1442,13 +1449,13 @@
         <v>21</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P14" s="11">
         <v>1</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>20</v>
@@ -1456,10 +1463,10 @@
     </row>
     <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -1474,7 +1481,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H15" s="6">
         <v>2</v>
@@ -1486,10 +1493,10 @@
         <v>2</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" s="11">
         <v>1</v>
@@ -1498,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P15" s="11">
         <v>1</v>
@@ -1526,8 +1533,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F15" xr:uid="{30C68C26-2CB6-418F-8DFE-0BF57E80B7DE}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15" xr:uid="{BD73B5E2-CABB-460F-83AB-CA6919E89CD7}">
-      <formula1>"Password@@12,Piyush@1234"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15" xr:uid="{FB5765B9-62B8-49B1-B234-B3269E36498F}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,11 +1542,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D626D3FA-C874-4367-90E1-22C0EEC78241}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="33.140625" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{7B56B6EE-DC2C-4BA3-BA59-109BCB2CD57A}">
+      <formula1>"Piyush_ql,ankur_ql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7" xr:uid="{1CB36B83-CDF5-4598-AB99-6C087E418BA0}">
+      <formula1>"1A-Amadeus,AQC-Amadeus AQC,1A-Amadeus NDC,1S-Sabre 5WTF,TourAPI-TourAPI,UA-UAPI -XB7,UA-Universal-69N8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7" xr:uid="{88492E92-BAEA-4753-82D2-7B4C70B7154F}">
+      <formula1>"Int,Dom"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7 H2:H7 M2:M7 P2:P7" xr:uid="{C3736B84-642C-49ED-9FD2-15C04A2F5899}">
+      <formula1>"1,2,3,4,5,6,7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{3E69761C-339E-4F56-9EAA-A9F3C1800364}">
+      <formula1>"at,qlabs12345,merg123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{FA107794-6BEB-4376-9E78-0306A36229F4}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA4B683-FDF2-4FF9-8BCE-C7B0BFB4EF1B}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,10 +2050,10 @@
     </row>
     <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>7</v>
@@ -1627,10 +2065,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="H2" s="13">
         <v>3</v>
@@ -1642,10 +2080,10 @@
         <v>3</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="M2" s="11">
         <v>2</v>
@@ -1654,23 +2092,20 @@
         <v>21</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="11">
         <v>2</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{FA2D9CE0-837B-4790-BEAF-74A5DA71B46C}">
-      <formula1>"Password@@12,Piyush@1234"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{EF77D7E3-80D3-45CD-8D69-E430EF3A8AD9}">
       <formula1>"Piyush_ql,ankur_ql"</formula1>
     </dataValidation>
@@ -1686,6 +2121,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{BE756016-DF2E-40E9-BFE2-D30CC2B04A12}">
       <formula1>"at,qlabs12345,merg123456"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{F25F5DC4-FD92-4554-9B31-57C3D7E3282B}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
